--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,32 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC01" sheetId="1" r:id="rId1"/>
+    <sheet name="TC02" sheetId="2" r:id="rId2"/>
+    <sheet name="TC03" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginTitle</t>
+  </si>
+  <si>
+    <t>tnraju@outlook.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>P@ssw0rd1</t>
+  </si>
+  <si>
+    <t>233435</t>
+  </si>
+  <si>
+    <t>4544vbdfbdv</t>
+  </si>
+  <si>
+    <t>fbfb@$@$</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>gnggg</t>
+  </si>
+  <si>
+    <t>#$%%ddfgf</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>FocusHrms</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,13 +111,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,20 +401,142 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:tnraju@outlook.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:tnraju@outlook.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>